--- a/workshop3data.xlsx
+++ b/workshop3data.xlsx
@@ -231,11 +231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1525756840"/>
-        <c:axId val="1525829192"/>
+        <c:axId val="2099353608"/>
+        <c:axId val="2099356568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1525756840"/>
+        <c:axId val="2099353608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -245,12 +245,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1525829192"/>
+        <c:crossAx val="2099356568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1525829192"/>
+        <c:axId val="2099356568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,7 +261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1525756840"/>
+        <c:crossAx val="2099353608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -424,11 +424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1534512904"/>
-        <c:axId val="-2141902872"/>
+        <c:axId val="2099326584"/>
+        <c:axId val="2099323960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1534512904"/>
+        <c:axId val="2099326584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,12 +438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141902872"/>
+        <c:crossAx val="2099323960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141902872"/>
+        <c:axId val="2099323960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1534512904"/>
+        <c:crossAx val="2099326584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -607,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1880984312"/>
-        <c:axId val="1880224536"/>
+        <c:axId val="2099293352"/>
+        <c:axId val="2099290520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1880984312"/>
+        <c:axId val="2099293352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,12 +621,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880224536"/>
+        <c:crossAx val="2099290520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1880224536"/>
+        <c:axId val="2099290520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880984312"/>
+        <c:crossAx val="2099293352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -742,7 +742,6 @@
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>circuit</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -865,11 +864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1918619400"/>
-        <c:axId val="1923963064"/>
+        <c:axId val="2074003208"/>
+        <c:axId val="2074005960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1918619400"/>
+        <c:axId val="2074003208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,12 +878,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923963064"/>
+        <c:crossAx val="2074005960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1923963064"/>
+        <c:axId val="2074005960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1918619400"/>
+        <c:crossAx val="2074003208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -956,6 +955,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>工作表1!$A$14:$A$24</c:f>
@@ -1050,11 +1054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1918184456"/>
-        <c:axId val="1923988408"/>
+        <c:axId val="2101728728"/>
+        <c:axId val="2101731752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1918184456"/>
+        <c:axId val="2101728728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,12 +1068,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923988408"/>
+        <c:crossAx val="2101731752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1923988408"/>
+        <c:axId val="2101731752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,13 +1084,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1918184456"/>
+        <c:crossAx val="2101728728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1147,6 +1155,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>工作表1!$A$14:$A$24</c:f>
@@ -1241,11 +1254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1880193640"/>
-        <c:axId val="1882228488"/>
+        <c:axId val="2101758520"/>
+        <c:axId val="2101761544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1880193640"/>
+        <c:axId val="2101758520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,12 +1268,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1882228488"/>
+        <c:crossAx val="2101761544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1882228488"/>
+        <c:axId val="2101761544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880193640"/>
+        <c:crossAx val="2101758520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1462,8 +1475,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -1811,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
@@ -1939,11 +1952,11 @@
         <v>2.9830000000000001</v>
       </c>
       <c r="E14">
-        <f>(C14/10000)*1000000-273.15</f>
+        <f t="shared" ref="E14:E24" si="0">(C14/10000)*1000000-273.15</f>
         <v>23.199999999999989</v>
       </c>
       <c r="F14">
-        <f>(D14/10000)*1000000-273.15</f>
+        <f t="shared" ref="F14:F24" si="1">(D14/10000)*1000000-273.15</f>
         <v>25.150000000000034</v>
       </c>
     </row>
@@ -1961,11 +1974,11 @@
         <v>3.0131000000000001</v>
       </c>
       <c r="E15">
-        <f>(C15/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>21.350000000000023</v>
       </c>
       <c r="F15">
-        <f>(D15/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>28.160000000000025</v>
       </c>
     </row>
@@ -1983,11 +1996,11 @@
         <v>3.0430000000000001</v>
       </c>
       <c r="E16">
-        <f>(C16/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>18.490000000000009</v>
       </c>
       <c r="F16">
-        <f>(D16/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>31.150000000000034</v>
       </c>
     </row>
@@ -2005,11 +2018,11 @@
         <v>3.0760000000000001</v>
       </c>
       <c r="E17">
-        <f>(C17/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>14.75</v>
       </c>
       <c r="F17">
-        <f>(D17/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>34.450000000000045</v>
       </c>
     </row>
@@ -2027,11 +2040,11 @@
         <v>3.1196000000000002</v>
       </c>
       <c r="E18">
-        <f>(C18/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>12.620000000000005</v>
       </c>
       <c r="F18">
-        <f>(D18/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>38.810000000000059</v>
       </c>
     </row>
@@ -2049,11 +2062,11 @@
         <v>3.1749999999999998</v>
       </c>
       <c r="E19">
-        <f>(C19/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>10.25</v>
       </c>
       <c r="F19">
-        <f>(D19/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>44.349999999999966</v>
       </c>
     </row>
@@ -2071,11 +2084,11 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="E20">
-        <f>(C20/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>8.3799999999999955</v>
       </c>
       <c r="F20">
-        <f>(D20/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>49.149999999999977</v>
       </c>
     </row>
@@ -2093,11 +2106,11 @@
         <v>3.28</v>
       </c>
       <c r="E21">
-        <f>(C21/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>6.6000000000000227</v>
       </c>
       <c r="F21">
-        <f>(D21/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>54.850000000000023</v>
       </c>
     </row>
@@ -2115,11 +2128,11 @@
         <v>3.3353000000000002</v>
       </c>
       <c r="E22">
-        <f>(C22/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>5.6200000000000614</v>
       </c>
       <c r="F22">
-        <f>(D22/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>60.380000000000052</v>
       </c>
     </row>
@@ -2137,11 +2150,11 @@
         <v>3.39</v>
       </c>
       <c r="E23">
-        <f>(C23/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>3.9200000000000728</v>
       </c>
       <c r="F23">
-        <f>(D23/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>65.850000000000023</v>
       </c>
     </row>
@@ -2159,11 +2172,11 @@
         <v>3.4590000000000001</v>
       </c>
       <c r="E24">
-        <f>(C24/10000)*1000000-273.15</f>
+        <f t="shared" si="0"/>
         <v>3.1899999999999977</v>
       </c>
       <c r="F24">
-        <f>(D24/10000)*1000000-273.15</f>
+        <f t="shared" si="1"/>
         <v>72.75</v>
       </c>
     </row>
